--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-137.809523809524</v>
+        <v>-137.8095238095239</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-137.8095238095241</v>
+        <v>-137.8095238095239</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1.631090121999108</v>
+        <v>-1.631090121999165</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-139.2000000000002</v>
+        <v>-139.2000000000001</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-137.9749311294768</v>
+        <v>-137.9749311294767</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.22506887052333</v>
+        <v>-1.225068870523359</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.224</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-9.174025974025909</v>
+        <v>-9.174025974025881</v>
       </c>
     </row>
     <row r="4">
@@ -525,10 +525,10 @@
         <v>-139.7714285714287</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-138.1403384494296</v>
+        <v>-138.1403384494295</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.631090121999108</v>
+        <v>-1.631090121999165</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
@@ -546,10 +546,10 @@
         <v>-139.8238095238096</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-138.3057457693824</v>
+        <v>-138.3057457693823</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.518063754427232</v>
+        <v>-1.518063754427288</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -560,13 +560,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-139.7000000000001</v>
+        <v>-139.7</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-138.4711530893351</v>
+        <v>-138.471153089335</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.22884691066497</v>
+        <v>-1.228846910665027</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -577,10 +577,10 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-139.7380952380954</v>
+        <v>-139.7380952380952</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-138.6365604092879</v>
+        <v>-138.6365604092878</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>-1.101534828807445</v>
@@ -594,13 +594,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-139.7952380952382</v>
+        <v>-139.7952380952381</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-138.8019677292407</v>
+        <v>-138.8019677292406</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.9932703659974891</v>
+        <v>-0.9932703659975459</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -611,10 +611,10 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-139.8904761904763</v>
+        <v>-139.8904761904762</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-138.9673750491935</v>
+        <v>-138.9673750491934</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>-0.9231011412828423</v>
@@ -628,13 +628,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-140.0000000000001</v>
+        <v>-140</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-139.1327823691462</v>
+        <v>-139.1327823691461</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.867217630853844</v>
+        <v>-0.8672176308538724</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -645,13 +645,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-140.0904761904763</v>
+        <v>-140.0904761904762</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-139.298189689099</v>
+        <v>-139.2981896890989</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.792286501377248</v>
+        <v>-0.7922865013772764</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -662,13 +662,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-140.204761904762</v>
+        <v>-140.2047619047619</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-139.4635970090518</v>
+        <v>-139.4635970090517</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.7411648957101988</v>
+        <v>-0.7411648957102273</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -679,13 +679,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-140.3142857142858</v>
+        <v>-140.3142857142857</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-139.6290043290046</v>
+        <v>-139.6290043290045</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.6852813852812289</v>
+        <v>-0.6852813852812574</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -696,10 +696,10 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-140.4761904761906</v>
+        <v>-140.4761904761905</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-139.7944116489573</v>
+        <v>-139.7944116489572</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>-0.681778827233245</v>
@@ -713,13 +713,13 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-140.6428571428572</v>
+        <v>-140.6428571428571</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-139.9598189689101</v>
+        <v>-139.95981896891</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.683038173947125</v>
+        <v>-0.6830381739471534</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -733,10 +733,10 @@
         <v>-140.8428571428572</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-140.1252262888629</v>
+        <v>-140.1252262888628</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.7176308539943648</v>
+        <v>-0.7176308539943932</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -747,10 +747,10 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-141.0428571428573</v>
+        <v>-141.0428571428571</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-140.2906336088157</v>
+        <v>-140.2906336088155</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>-0.7522235340416046</v>
@@ -764,13 +764,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-141.2857142857144</v>
+        <v>-141.2857142857143</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-140.4560409287684</v>
+        <v>-140.4560409287683</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.8296733569459604</v>
+        <v>-0.8296733569459889</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -781,13 +781,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-141.5095238095239</v>
+        <v>-141.5095238095238</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-140.6214482487212</v>
+        <v>-140.6214482487211</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.8880755608026902</v>
+        <v>-0.8880755608027471</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -798,13 +798,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-141.7714285714287</v>
+        <v>-141.7714285714286</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-140.786855568674</v>
+        <v>-140.7868555686739</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.9845730027546722</v>
+        <v>-0.984573002754729</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -815,13 +815,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-142.0142857142858</v>
+        <v>-142.0142857142857</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-140.9522628886268</v>
+        <v>-140.9522628886266</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.062022825659056</v>
+        <v>-1.062022825659085</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -832,10 +832,10 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-142.3095238095239</v>
+        <v>-142.3095238095238</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-141.1176702085795</v>
+        <v>-141.1176702085794</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>-1.191853600944398</v>
@@ -849,13 +849,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-142.6238095238096</v>
+        <v>-142.6238095238095</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-141.2830775285323</v>
+        <v>-141.2830775285322</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.340731995277309</v>
+        <v>-1.340731995277338</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -869,10 +869,10 @@
         <v>-142.9571428571429</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-141.4484848484851</v>
+        <v>-141.448484848485</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.508658008657875</v>
+        <v>-1.508658008657903</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -883,13 +883,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-143.3000000000001</v>
+        <v>-143.3</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-141.6138921684378</v>
+        <v>-141.6138921684377</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.686107831562254</v>
+        <v>-1.686107831562282</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -903,10 +903,10 @@
         <v>-143.6333333333334</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-141.7792994883906</v>
+        <v>-141.7792994883905</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.854033844942819</v>
+        <v>-1.854033844942848</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -917,13 +917,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-143.9619047619049</v>
+        <v>-143.9619047619048</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-141.9447068083434</v>
+        <v>-141.9447068083433</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.017197953561464</v>
+        <v>-2.017197953561492</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -934,13 +934,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-144.3238095238096</v>
+        <v>-144.3238095238095</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-142.1101141282962</v>
+        <v>-142.1101141282961</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.21369539551344</v>
+        <v>-2.213695395513469</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -951,13 +951,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-144.704761904762</v>
+        <v>-144.7047619047619</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-142.275521448249</v>
+        <v>-142.2755214482488</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.429240456513043</v>
+        <v>-2.429240456513071</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -968,10 +968,10 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-145.0904761904763</v>
+        <v>-145.0904761904762</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-142.4409287682017</v>
+        <v>-142.4409287682016</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>-2.649547422274594</v>
@@ -985,13 +985,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-145.5000000000001</v>
+        <v>-145.5</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-142.6063360881545</v>
+        <v>-142.6063360881544</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.893663911845636</v>
+        <v>-2.893663911845607</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1002,10 +1002,10 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-145.9000000000001</v>
+        <v>-145.9</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-142.7717434081073</v>
+        <v>-142.7717434081072</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>-3.128256591892836</v>
@@ -1019,13 +1019,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-146.3000000000001</v>
+        <v>-146.3</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-142.93715072806</v>
+        <v>-142.9371507280599</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-3.362849271940092</v>
+        <v>-3.362849271940121</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1036,13 +1036,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-146.7000000000001</v>
+        <v>-146.7</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-143.1025580480128</v>
+        <v>-143.1025580480127</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-3.597441951987264</v>
+        <v>-3.597441951987321</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1053,13 +1053,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-147.1000000000001</v>
+        <v>-147.1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-143.2679653679656</v>
+        <v>-143.2679653679655</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-3.832034632034492</v>
+        <v>-3.832034632034549</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1070,10 +1070,10 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-147.5000000000001</v>
+        <v>-147.5</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-143.4333726879184</v>
+        <v>-143.4333726879183</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>-4.066627312081749</v>
@@ -1087,13 +1087,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-147.9000000000001</v>
+        <v>-147.9</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-143.5987800078711</v>
+        <v>-143.598780007871</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-4.301219992128949</v>
+        <v>-4.301219992129006</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1104,13 +1104,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-148.2904761904763</v>
+        <v>-148.2904761904762</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-143.7641873278239</v>
+        <v>-143.7641873278238</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-4.526288862652393</v>
+        <v>-4.526288862652422</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1121,13 +1121,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-148.6952380952382</v>
+        <v>-148.6952380952381</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-143.9295946477767</v>
+        <v>-143.9295946477766</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-4.765643447461542</v>
+        <v>-4.765643447461514</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1138,7 +1138,7 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-149.1380952380953</v>
+        <v>-149.1380952380952</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>-144.0950019677294</v>
@@ -1155,10 +1155,10 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-149.5904761904763</v>
+        <v>-149.5904761904762</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-144.2604092876822</v>
+        <v>-144.2604092876821</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>-5.330066902794073</v>
@@ -1175,10 +1175,10 @@
         <v>-150.0571428571429</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-144.425816607635</v>
+        <v>-144.4258166076349</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-5.631326249507936</v>
+        <v>-5.631326249507993</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1192,10 +1192,10 @@
         <v>-150.5333333333334</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-144.5912239275878</v>
+        <v>-144.5912239275877</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-5.942109405745668</v>
+        <v>-5.942109405745697</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1206,13 +1206,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-151.004761904762</v>
+        <v>-151.0047619047619</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-144.7566312475406</v>
+        <v>-144.7566312475404</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-6.248130657221452</v>
+        <v>-6.248130657221481</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1223,13 +1223,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-151.4904761904763</v>
+        <v>-151.4904761904762</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-144.9220385674933</v>
+        <v>-144.9220385674932</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-6.56843762298297</v>
+        <v>-6.568437622982998</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1240,13 +1240,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-152.0095238095239</v>
+        <v>-152.0095238095238</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-145.0874458874461</v>
+        <v>-145.087445887446</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-6.922077922077818</v>
+        <v>-6.922077922077847</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1257,13 +1257,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-152.4952380952382</v>
+        <v>-152.4952380952381</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-145.2528532073989</v>
+        <v>-145.2528532073988</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-7.242384887839364</v>
+        <v>-7.242384887839336</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1274,10 +1274,10 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-152.9761904761906</v>
+        <v>-152.9761904761905</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-145.4182605273516</v>
+        <v>-145.4182605273515</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>-7.557929948838932</v>
@@ -1291,13 +1291,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-153.4380952380953</v>
+        <v>-153.4380952380952</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-145.5836678473044</v>
+        <v>-145.5836678473043</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-7.854427390790931</v>
+        <v>-7.854427390790903</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1308,13 +1308,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-153.8761904761906</v>
+        <v>-153.8761904761905</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-145.7490751672572</v>
+        <v>-145.7490751672571</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-8.127115308933384</v>
+        <v>-8.127115308933412</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1325,13 +1325,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-154.304761904762</v>
+        <v>-154.3047619047619</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-145.91448248721</v>
+        <v>-145.9144824872099</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-8.390279417552051</v>
+        <v>-8.39027941755208</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1342,10 +1342,10 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-154.7142857142858</v>
+        <v>-154.7142857142857</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-146.0798898071627</v>
+        <v>-146.0798898071626</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>-8.634395907123093</v>
@@ -1359,13 +1359,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-155.0809523809525</v>
+        <v>-155.0809523809524</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-146.2452971271155</v>
+        <v>-146.2452971271154</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-8.835655253836961</v>
+        <v>-8.83565525383699</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1376,10 +1376,10 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-155.4095238095239</v>
+        <v>-155.4095238095238</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-146.4107044470683</v>
+        <v>-146.4107044470682</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>-8.998819362455635</v>
@@ -1393,7 +1393,7 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-155.6904761904763</v>
+        <v>-155.6904761904762</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>-146.576111767021</v>
@@ -1410,10 +1410,10 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-155.9095238095239</v>
+        <v>-155.9095238095238</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-146.7415190869738</v>
+        <v>-146.7415190869737</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>-9.16800472255008</v>
@@ -1427,13 +1427,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-156.0809523809525</v>
+        <v>-156.0809523809524</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-146.9069264069266</v>
+        <v>-146.9069264069265</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-9.174025974025909</v>
+        <v>-9.174025974025881</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1444,10 +1444,10 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-156.2142857142858</v>
+        <v>-156.2142857142857</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-147.0723337268794</v>
+        <v>-147.0723337268793</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>-9.141951987406429</v>
@@ -1461,10 +1461,10 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-156.3142857142858</v>
+        <v>-156.3142857142857</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-147.2377410468322</v>
+        <v>-147.2377410468321</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>-9.076544667453675</v>
@@ -1478,10 +1478,10 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-156.3809523809525</v>
+        <v>-156.3809523809524</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-147.4031483667849</v>
+        <v>-147.4031483667848</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>-8.977804014167589</v>
@@ -1495,13 +1495,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-156.4000000000001</v>
+        <v>-156.4</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-147.5685556867377</v>
+        <v>-147.5685556867376</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-8.831444313262381</v>
+        <v>-8.831444313262438</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1512,13 +1512,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-156.3857142857144</v>
+        <v>-156.3857142857143</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-147.7339630066905</v>
+        <v>-147.7339630066904</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-8.651751279023927</v>
+        <v>-8.651751279023955</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1529,13 +1529,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-156.3380952380954</v>
+        <v>-156.3380952380953</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>-147.8993703266432</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-8.438724911452141</v>
+        <v>-8.438724911452113</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1546,13 +1546,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-156.2761904761906</v>
+        <v>-156.2761904761905</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-148.064777646596</v>
+        <v>-148.0647776465959</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-8.211412829594593</v>
+        <v>-8.211412829594565</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1563,13 +1563,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-156.1952380952382</v>
+        <v>-156.1952380952381</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-148.2301849665488</v>
+        <v>-148.2301849665487</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-7.965053128689419</v>
+        <v>-7.965053128689391</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1580,13 +1580,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-156.1190476190477</v>
+        <v>-156.1190476190476</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-148.3955922865016</v>
+        <v>-148.3955922865015</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-7.723455332546138</v>
+        <v>-7.723455332546166</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1597,13 +1597,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-155.9952380952382</v>
+        <v>-155.9952380952381</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>-148.5609996064543</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-7.434238488783876</v>
+        <v>-7.434238488783848</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1614,10 +1614,10 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-155.8761904761906</v>
+        <v>-155.8761904761905</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-148.7264069264071</v>
+        <v>-148.726406926407</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>-7.14978354978345</v>
@@ -1634,10 +1634,10 @@
         <v>-155.7285714285715</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-148.8918142463599</v>
+        <v>-148.8918142463598</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-6.836757182211613</v>
+        <v>-6.83675718221167</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1648,13 +1648,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-155.5714285714287</v>
+        <v>-155.5714285714286</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-149.0572215663127</v>
+        <v>-149.0572215663126</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-6.514207005115992</v>
+        <v>-6.514207005116049</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1668,10 +1668,10 @@
         <v>-155.4238095238096</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-149.2226288862654</v>
+        <v>-149.2226288862653</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-6.201180637544184</v>
+        <v>-6.201180637544212</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1682,10 +1682,10 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-155.304761904762</v>
+        <v>-155.3047619047619</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-149.3880362062182</v>
+        <v>-149.3880362062181</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>-5.916725698543814</v>
@@ -1699,10 +1699,10 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-155.1904761904763</v>
+        <v>-155.1904761904762</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-149.553443526171</v>
+        <v>-149.5534435261709</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>-5.637032664305309</v>
@@ -1716,13 +1716,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-155.1000000000001</v>
+        <v>-155.1</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-149.7188508461238</v>
+        <v>-149.7188508461237</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-5.381149153876379</v>
+        <v>-5.381149153876351</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1733,10 +1733,10 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-155.0000000000001</v>
+        <v>-155</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-149.8842581660765</v>
+        <v>-149.8842581660764</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>-5.115741833923579</v>
@@ -1750,10 +1750,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-154.9000000000001</v>
+        <v>-154.9</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-150.0496654860293</v>
+        <v>-150.0496654860292</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>-4.850334513970779</v>
@@ -1767,10 +1767,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-154.7904761904763</v>
+        <v>-154.7904761904762</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-150.2150728059821</v>
+        <v>-150.215072805982</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>-4.575403384494194</v>
@@ -1784,13 +1784,13 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-154.704761904762</v>
+        <v>-154.7047619047619</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-150.3804801259349</v>
+        <v>-150.3804801259348</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-4.324281778827128</v>
+        <v>-4.324281778827157</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1801,10 +1801,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-154.6238095238096</v>
+        <v>-154.6238095238095</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-150.5458874458876</v>
+        <v>-150.5458874458875</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>-4.077922077921983</v>
@@ -1818,13 +1818,13 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-154.5714285714287</v>
+        <v>-154.5714285714286</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-150.7112947658404</v>
+        <v>-150.7112947658403</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-3.860133805588276</v>
+        <v>-3.860133805588305</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1835,13 +1835,13 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-154.5190476190477</v>
+        <v>-154.5190476190476</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-150.8767020857932</v>
+        <v>-150.8767020857931</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-3.64234553325457</v>
+        <v>-3.642345533254542</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1858,7 +1858,7 @@
         <v>-151.0421094057459</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-3.429319165682699</v>
+        <v>-3.429319165682728</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1872,10 +1872,10 @@
         <v>-154.4238095238096</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-151.2075167256987</v>
+        <v>-151.2075167256986</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-3.216292798110885</v>
+        <v>-3.216292798110914</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1886,10 +1886,10 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-154.404761904762</v>
+        <v>-154.4047619047619</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-151.3729240456515</v>
+        <v>-151.3729240456514</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>-3.03183785911051</v>
@@ -1903,13 +1903,13 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-154.3904761904763</v>
+        <v>-154.3904761904762</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-151.5383313656043</v>
+        <v>-151.5383313656042</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-2.852144824872028</v>
+        <v>-2.852144824871999</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1920,13 +1920,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-154.3904761904763</v>
+        <v>-154.3904761904762</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-151.7037386855571</v>
+        <v>-151.703738685557</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-2.68673750491925</v>
+        <v>-2.686737504919222</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1937,13 +1937,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-154.4142857142858</v>
+        <v>-154.4142857142857</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-151.8691460055098</v>
+        <v>-151.8691460055097</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-2.54513970877602</v>
+        <v>-2.545139708775991</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1954,13 +1954,13 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-154.4095238095239</v>
+        <v>-154.4095238095238</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-152.0345533254626</v>
+        <v>-152.0345533254625</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-2.37497048406135</v>
+        <v>-2.374970484061322</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1974,10 +1974,10 @@
         <v>-154.4428571428572</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-152.1999606454154</v>
+        <v>-152.1999606454153</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-2.242896497441876</v>
+        <v>-2.242896497441905</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1988,13 +1988,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-154.4952380952382</v>
+        <v>-154.4952380952381</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>-152.3653679653681</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-2.129870129870085</v>
+        <v>-2.129870129870056</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2005,13 +2005,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-154.5380952380954</v>
+        <v>-154.5380952380953</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-152.5307752853209</v>
+        <v>-152.5307752853208</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-2.007319952774452</v>
+        <v>-2.007319952774424</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2022,13 +2022,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-154.5761904761906</v>
+        <v>-154.5761904761905</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-152.6961826052737</v>
+        <v>-152.6961826052736</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-1.88000787091687</v>
+        <v>-1.880007870916899</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2039,13 +2039,13 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-154.657142857143</v>
+        <v>-154.6571428571428</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-152.8615899252265</v>
+        <v>-152.8615899252264</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-1.79555293191649</v>
+        <v>-1.795552931916461</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2056,7 +2056,7 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-154.6904761904763</v>
+        <v>-154.6904761904762</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>-153.0269972451792</v>
@@ -2073,13 +2073,13 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-154.7666666666668</v>
+        <v>-154.7666666666667</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-153.192404565132</v>
+        <v>-153.1924045651319</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-1.574262101534771</v>
+        <v>-1.574262101534742</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2090,13 +2090,13 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-154.8285714285715</v>
+        <v>-154.8285714285714</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-153.3578118850848</v>
+        <v>-153.3578118850847</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-1.470759543486764</v>
+        <v>-1.470759543486736</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2107,13 +2107,13 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-154.8714285714287</v>
+        <v>-154.8714285714286</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>-153.5232192050375</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-1.348209366391131</v>
+        <v>-1.348209366391103</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2124,10 +2124,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-154.9238095238096</v>
+        <v>-154.9238095238095</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-153.6886265249903</v>
+        <v>-153.6886265249902</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>-1.235182998819283</v>
@@ -2141,10 +2141,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-155.004761904762</v>
+        <v>-155.0047619047619</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-153.8540338449431</v>
+        <v>-153.854033844943</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>-1.150728059818903</v>
@@ -2158,13 +2158,13 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-155.1000000000001</v>
+        <v>-155.1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-154.0194411648959</v>
+        <v>-154.0194411648958</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-1.080558835104256</v>
+        <v>-1.080558835104227</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2175,13 +2175,13 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-155.1952380952382</v>
+        <v>-155.1952380952381</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-154.1848484848487</v>
+        <v>-154.1848484848486</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-1.010389610389524</v>
+        <v>-1.010389610389552</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2192,10 +2192,10 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-155.2666666666668</v>
+        <v>-155.2666666666667</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-154.3502558048014</v>
+        <v>-154.3502558048013</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>-0.9164108618653302</v>
@@ -2209,10 +2209,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-155.3333333333335</v>
+        <v>-155.3333333333334</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-154.5156631247542</v>
+        <v>-154.5156631247541</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>-0.8176702085792726</v>
@@ -2226,10 +2226,10 @@
         <v>-0.412</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-155.404761904762</v>
+        <v>-155.4047619047619</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-154.681070444707</v>
+        <v>-154.6810704447069</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>-0.7236914600550506</v>
@@ -2243,13 +2243,13 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-155.4904761904763</v>
+        <v>-155.4904761904762</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>-154.8464777646597</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>-0.6439984258165339</v>
+        <v>-0.6439984258165623</v>
       </c>
       <c r="E105" s="2" t="n"/>
       <c r="F105" s="2" t="n"/>
@@ -2260,13 +2260,13 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-155.6000000000001</v>
+        <v>-155.6</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-155.0118850846125</v>
+        <v>-155.0118850846124</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>-0.588114915387564</v>
+        <v>-0.5881149153875924</v>
       </c>
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
@@ -2277,13 +2277,13 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-155.6904761904763</v>
+        <v>-155.6904761904762</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-155.1772924045653</v>
+        <v>-155.1772924045652</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>-0.513183785910968</v>
+        <v>-0.5131837859109964</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
@@ -2294,13 +2294,13 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-155.8142857142858</v>
+        <v>-155.8142857142857</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-155.3426997245181</v>
+        <v>-155.342699724518</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>-0.4715859897677319</v>
+        <v>-0.4715859897677603</v>
       </c>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
@@ -2311,13 +2311,13 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-155.9190476190477</v>
+        <v>-155.9190476190476</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>-155.5081070444708</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>-0.4109405745768697</v>
+        <v>-0.4109405745768413</v>
       </c>
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
@@ -2328,13 +2328,13 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-156.0380952380954</v>
+        <v>-156.0380952380953</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-155.6735143644236</v>
+        <v>-155.6735143644235</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>-0.3645808736717413</v>
+        <v>-0.3645808736717129</v>
       </c>
       <c r="E110" s="2" t="n"/>
       <c r="F110" s="2" t="n"/>
@@ -2345,13 +2345,13 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-156.1523809523811</v>
+        <v>-156.152380952381</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-155.8389216843764</v>
+        <v>-155.8389216843763</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>-0.3134592680046921</v>
+        <v>-0.3134592680046353</v>
       </c>
       <c r="E111" s="2" t="n"/>
       <c r="F111" s="2" t="n"/>
@@ -2362,13 +2362,13 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-156.2952380952382</v>
+        <v>-156.2952380952381</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-156.0043290043292</v>
+        <v>-156.0043290043291</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>-0.2909090909090537</v>
+        <v>-0.2909090909090253</v>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="2" t="n"/>
@@ -2379,13 +2379,13 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-156.404761904762</v>
+        <v>-156.4047619047619</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>-156.1697363242819</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>-0.2350255804801122</v>
+        <v>-0.2350255804800554</v>
       </c>
       <c r="E113" s="2" t="n"/>
       <c r="F113" s="2" t="n"/>
@@ -2396,13 +2396,13 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-156.5476190476192</v>
+        <v>-156.5476190476191</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-156.3351436442347</v>
+        <v>-156.3351436442346</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>-0.2124754033844454</v>
+        <v>-0.2124754033844738</v>
       </c>
       <c r="E114" s="2" t="n"/>
       <c r="F114" s="2" t="n"/>
@@ -2413,10 +2413,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-156.6523809523811</v>
+        <v>-156.652380952381</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-156.5005509641875</v>
+        <v>-156.5005509641874</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>-0.1518299881935832</v>
@@ -2430,10 +2430,10 @@
         <v>-0.46</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-156.7857142857144</v>
+        <v>-156.7857142857143</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-156.6659582841403</v>
+        <v>-156.6659582841402</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>-0.1197560015741317</v>
@@ -2447,7 +2447,7 @@
         <v>-0.464</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-156.9095238095239</v>
+        <v>-156.9095238095238</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>-156.831365604093</v>
@@ -2464,10 +2464,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-157.0809523809525</v>
+        <v>-157.0809523809524</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-156.9967729240458</v>
+        <v>-156.9967729240457</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>-0.08417945690666784</v>
@@ -2481,13 +2481,13 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-157.2190476190477</v>
+        <v>-157.2190476190476</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-157.1621802439986</v>
+        <v>-157.1621802439985</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>-0.05686737504910866</v>
+        <v>-0.05686737504913708</v>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="2" t="n"/>
@@ -2498,13 +2498,13 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-157.3809523809525</v>
+        <v>-157.3809523809524</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>-157.3275875639513</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>-0.05336481700115314</v>
+        <v>-0.05336481700112472</v>
       </c>
       <c r="E120" s="2" t="n"/>
       <c r="F120" s="2" t="n"/>
@@ -2515,13 +2515,13 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-157.5190476190477</v>
+        <v>-157.5190476190476</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-157.4929948839041</v>
+        <v>-157.492994883904</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>-0.02605273514362239</v>
+        <v>-0.02605273514359396</v>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>
@@ -2532,10 +2532,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-157.6714285714287</v>
+        <v>-157.6714285714286</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-157.6584022038569</v>
+        <v>-157.6584022038568</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>-0.01302636757176856</v>
@@ -2549,13 +2549,13 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
+        <v>-157.8238095238095</v>
+      </c>
+      <c r="C123" s="2" t="n">
         <v>-157.8238095238096</v>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>-157.8238095238097</v>
-      </c>
       <c r="D123" s="2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="E123" s="2" t="n"/>
       <c r="F123" s="2" t="n"/>
@@ -2566,10 +2566,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-158.0000000000002</v>
+        <v>-158.0000000000001</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-158.0000000000002</v>
+        <v>-158.0000000000001</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>-0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>-158.4023809523811</v>
+        <v>-158.4023809523812</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>-158.4023809523811</v>
+        <v>-158.4023809523812</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.631090121999108</v>
+        <v>-1.631090121999165</v>
       </c>
     </row>
     <row r="3">
@@ -2660,7 +2660,7 @@
         <v>-0.224</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-9.174025974025909</v>
+        <v>-9.174025974025881</v>
       </c>
     </row>
     <row r="4">

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,79 +477,75 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-137.8095238095239</v>
+        <v>-143.6119047619049</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-137.8095238095239</v>
+        <v>-143.6119047619049</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.224</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1.631090121999165</v>
+        <v>-7.930927318295744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-139.2000000000001</v>
+        <v>-143.9642857142859</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-137.9749311294767</v>
+        <v>-143.7582957393485</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.225068870523359</v>
+        <v>-0.2059899749373812</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.476</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-9.174025974025881</v>
+        <v>-0.008295739348398001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-139.7714285714287</v>
+        <v>-144.3285714285715</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-138.1403384494295</v>
+        <v>-143.9046867167921</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.631090121999165</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-0.08417945690666784</v>
-      </c>
+        <v>-0.4238847117794364</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-139.8238095238096</v>
+        <v>-144.704761904762</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-138.3057457693823</v>
+        <v>-144.0510776942357</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.518063754427288</v>
+        <v>-0.6536842105262792</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -557,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-139.7</v>
+        <v>-145.0904761904763</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-138.471153089335</v>
+        <v>-144.1974686716793</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.228846910665027</v>
+        <v>-0.8930075187969919</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -574,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-139.7380952380952</v>
+        <v>-145.5000000000001</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-138.6365604092878</v>
+        <v>-144.3438596491229</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.101534828807445</v>
+        <v>-1.156140350877166</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -591,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-139.7952380952381</v>
+        <v>-145.9000000000001</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-138.8019677292406</v>
+        <v>-144.4902506265665</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.9932703659975459</v>
+        <v>-1.409749373433556</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -608,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-139.8904761904762</v>
+        <v>-146.3000000000001</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-138.9673750491934</v>
+        <v>-144.6366416040102</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.9231011412828423</v>
+        <v>-1.663358395989974</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -625,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-140</v>
+        <v>-146.7000000000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-139.1327823691461</v>
+        <v>-144.7830325814537</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.8672176308538724</v>
+        <v>-1.916967418546335</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -642,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-140.0904761904762</v>
+        <v>-147.1000000000001</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-139.2981896890989</v>
+        <v>-144.9294235588974</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.7922865013772764</v>
+        <v>-2.170576441102725</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -659,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-140.2047619047619</v>
+        <v>-147.5000000000001</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-139.4635970090517</v>
+        <v>-145.075814536341</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.7411648957102273</v>
+        <v>-2.424185463659143</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -676,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-140.3142857142857</v>
+        <v>-147.9000000000001</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-139.6290043290045</v>
+        <v>-145.2222055137846</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.6852813852812574</v>
+        <v>-2.677794486215532</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -693,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-140.4761904761905</v>
+        <v>-148.2904761904763</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-139.7944116489572</v>
+        <v>-145.3685964912282</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.681778827233245</v>
+        <v>-2.921879699248109</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -710,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-140.6428571428571</v>
+        <v>-148.6952380952382</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-139.95981896891</v>
+        <v>-145.5149874686718</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6830381739471534</v>
+        <v>-3.180250626566391</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -727,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-140.8428571428572</v>
+        <v>-149.1380952380953</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-140.1252262888628</v>
+        <v>-145.6613784461154</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.7176308539943932</v>
+        <v>-3.476716791979925</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -744,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-141.0428571428571</v>
+        <v>-149.5904761904763</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-140.2906336088155</v>
+        <v>-145.807769423559</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.7522235340416046</v>
+        <v>-3.7827067669173</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -761,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-141.2857142857143</v>
+        <v>-150.0571428571429</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-140.4560409287683</v>
+        <v>-145.9541604010026</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.8296733569459889</v>
+        <v>-4.102982456140325</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -778,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-141.5095238095238</v>
+        <v>-150.5333333333334</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-140.6214482487211</v>
+        <v>-146.1005513784462</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.8880755608027471</v>
+        <v>-4.432781954887218</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -795,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-141.7714285714286</v>
+        <v>-151.004761904762</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-140.7868555686739</v>
+        <v>-146.2469423558898</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.984573002754729</v>
+        <v>-4.757819548872163</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -812,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-142.0142857142857</v>
+        <v>-151.4904761904763</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-140.9522628886266</v>
+        <v>-146.3933333333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.062022825659085</v>
+        <v>-5.097142857142842</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -829,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-142.3095238095238</v>
+        <v>-152.0095238095239</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-141.1176702085794</v>
+        <v>-146.539724310777</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.191853600944398</v>
+        <v>-5.469799498746852</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -846,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-142.6238095238095</v>
+        <v>-152.4952380952382</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-141.2830775285322</v>
+        <v>-146.6861152882207</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.340731995277338</v>
+        <v>-5.80912280701753</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -863,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-142.9571428571429</v>
+        <v>-152.9761904761905</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-141.448484848485</v>
+        <v>-146.8325062656643</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.508658008657903</v>
+        <v>-6.14368421052626</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -880,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-143.3</v>
+        <v>-153.4380952380953</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-141.6138921684377</v>
+        <v>-146.9788972431079</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.686107831562282</v>
+        <v>-6.459197994987449</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -897,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-143.6333333333334</v>
+        <v>-153.8761904761906</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-141.7792994883905</v>
+        <v>-147.1252882205515</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.854033844942848</v>
+        <v>-6.75090225563909</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -914,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-143.9619047619048</v>
+        <v>-154.304761904762</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-141.9447068083433</v>
+        <v>-147.2716791979951</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.017197953561492</v>
+        <v>-7.033082706766919</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -931,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-144.3238095238095</v>
+        <v>-154.7142857142858</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-142.1101141282961</v>
+        <v>-147.4180701754387</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.213695395513469</v>
+        <v>-7.296215538847122</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -948,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-144.7047619047619</v>
+        <v>-155.0809523809525</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-142.2755214482488</v>
+        <v>-147.5644611528823</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.429240456513071</v>
+        <v>-7.51649122807018</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -965,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-145.0904761904762</v>
+        <v>-155.4095238095239</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-142.4409287682016</v>
+        <v>-147.7108521303259</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-2.649547422274594</v>
+        <v>-7.698671679197986</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -982,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-145.5</v>
+        <v>-155.6904761904763</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-142.6063360881544</v>
+        <v>-147.8572431077695</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.893663911845607</v>
+        <v>-7.833233082706755</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -999,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-145.9</v>
+        <v>-155.9095238095239</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-142.7717434081072</v>
+        <v>-148.0036340852131</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-3.128256591892836</v>
+        <v>-7.905889724310782</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1016,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-146.3</v>
+        <v>-156.0809523809525</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-142.9371507280599</v>
+        <v>-148.1500250626567</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-3.362849271940121</v>
+        <v>-7.930927318295744</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1033,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-146.7</v>
+        <v>-156.2142857142858</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-143.1025580480127</v>
+        <v>-148.2964160401004</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-3.597441951987321</v>
+        <v>-7.917869674185454</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1050,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-147.1</v>
+        <v>-156.3142857142858</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-143.2679653679655</v>
+        <v>-148.442807017544</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-3.832034632034549</v>
+        <v>-7.87147869674186</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1067,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-147.5</v>
+        <v>-156.3809523809525</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-143.4333726879183</v>
+        <v>-148.5891979949876</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-4.066627312081749</v>
+        <v>-7.791754385964964</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1084,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-147.9</v>
+        <v>-156.4000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-143.598780007871</v>
+        <v>-148.7355889724312</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-4.301219992129006</v>
+        <v>-7.664411027568946</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1101,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-148.2904761904762</v>
+        <v>-156.3857142857144</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-143.7641873278238</v>
+        <v>-148.8819799498748</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-4.526288862652422</v>
+        <v>-7.503734335839624</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1118,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-148.6952380952381</v>
+        <v>-156.3380952380954</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-143.9295946477766</v>
+        <v>-149.0283709273184</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-4.765643447461514</v>
+        <v>-7.309724310776971</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1135,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-149.1380952380952</v>
+        <v>-156.2761904761906</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-144.0950019677294</v>
+        <v>-149.174761904762</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-5.043093270365887</v>
+        <v>-7.101428571428585</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1152,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-149.5904761904762</v>
+        <v>-156.1952380952382</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-144.2604092876821</v>
+        <v>-149.3211528822056</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-5.330066902794073</v>
+        <v>-6.874085213032572</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1169,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-150.0571428571429</v>
+        <v>-156.1190476190477</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-144.4258166076349</v>
+        <v>-149.4675438596492</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-5.631326249507993</v>
+        <v>-6.65150375939848</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1186,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-150.5333333333334</v>
+        <v>-155.9952380952382</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-144.5912239275877</v>
+        <v>-149.6139348370928</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-5.942109405745697</v>
+        <v>-6.38130325814538</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1203,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-151.0047619047619</v>
+        <v>-155.8761904761906</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-144.7566312475404</v>
+        <v>-149.7603258145364</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-6.248130657221481</v>
+        <v>-6.115864661654143</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1220,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-151.4904761904762</v>
+        <v>-155.7285714285715</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-144.9220385674932</v>
+        <v>-149.90671679198</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-6.568437622982998</v>
+        <v>-5.821854636591468</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1237,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-152.0095238095238</v>
+        <v>-155.5714285714287</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-145.087445887446</v>
+        <v>-150.0531077694237</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-6.922077922077847</v>
+        <v>-5.518320802005007</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1254,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-152.4952380952381</v>
+        <v>-155.4238095238096</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-145.2528532073988</v>
+        <v>-150.1994987468672</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-7.242384887839336</v>
+        <v>-5.22431077694236</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1271,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-152.9761904761905</v>
+        <v>-155.304761904762</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-145.4182605273515</v>
+        <v>-150.3458897243109</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-7.557929948838932</v>
+        <v>-4.958872180451152</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1288,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-153.4380952380952</v>
+        <v>-155.1904761904763</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-145.5836678473043</v>
+        <v>-150.4922807017545</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-7.854427390790903</v>
+        <v>-4.698195488721808</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1305,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-153.8761904761905</v>
+        <v>-155.1000000000001</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-145.7490751672571</v>
+        <v>-150.6386716791981</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-8.127115308933412</v>
+        <v>-4.461328320802039</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1322,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-154.3047619047619</v>
+        <v>-155.0000000000001</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-145.9144824872099</v>
+        <v>-150.7850626566417</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-8.39027941755208</v>
+        <v>-4.2149373433584</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1339,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-154.7142857142857</v>
+        <v>-154.9000000000001</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-146.0798898071626</v>
+        <v>-150.9314536340853</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-8.634395907123093</v>
+        <v>-3.96854636591479</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1356,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-155.0809523809524</v>
+        <v>-154.7904761904763</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-146.2452971271154</v>
+        <v>-151.0778446115289</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-8.83565525383699</v>
+        <v>-3.712631578947367</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1373,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-155.4095238095238</v>
+        <v>-154.704761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-146.4107044470682</v>
+        <v>-151.2242355889725</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-8.998819362455635</v>
+        <v>-3.480526315789461</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1390,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-155.6904761904762</v>
+        <v>-154.6238095238096</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-146.576111767021</v>
+        <v>-151.3706265664161</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-9.114364423455243</v>
+        <v>-3.253182957393477</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1407,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-155.9095238095238</v>
+        <v>-154.5714285714287</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-146.7415190869737</v>
+        <v>-151.5170175438597</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-9.16800472255008</v>
+        <v>-3.054411027568932</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1424,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-156.0809523809524</v>
+        <v>-154.5190476190477</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-146.9069264069265</v>
+        <v>-151.6634085213034</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-9.174025974025881</v>
+        <v>-2.855639097744387</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1441,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-156.2142857142857</v>
+        <v>-154.4714285714286</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-147.0723337268793</v>
+        <v>-151.8097994987469</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-9.141951987406429</v>
+        <v>-2.661629072681706</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1458,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-156.3142857142857</v>
+        <v>-154.4238095238096</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-147.2377410468321</v>
+        <v>-151.9561904761906</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-9.076544667453675</v>
+        <v>-2.467619047619053</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1475,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-156.3809523809524</v>
+        <v>-154.404761904762</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-147.4031483667848</v>
+        <v>-152.1025814536342</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-8.977804014167589</v>
+        <v>-2.302180451127839</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1492,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-156.4</v>
+        <v>-154.3904761904763</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-147.5685556867376</v>
+        <v>-152.2489724310778</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-8.831444313262438</v>
+        <v>-2.141503759398518</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1509,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-156.3857142857143</v>
+        <v>-154.3904761904763</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-147.7339630066904</v>
+        <v>-152.3953634085214</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-8.651751279023955</v>
+        <v>-1.99511278195493</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1526,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-156.3380952380953</v>
+        <v>-154.4142857142858</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-147.8993703266432</v>
+        <v>-152.541754385965</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-8.438724911452113</v>
+        <v>-1.872531328320832</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1543,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-156.2761904761905</v>
+        <v>-154.4095238095239</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-148.0647776465959</v>
+        <v>-152.6881453634086</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-8.211412829594565</v>
+        <v>-1.721378446115295</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1560,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-156.1952380952381</v>
+        <v>-154.4428571428572</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-148.2301849665487</v>
+        <v>-152.8345363408522</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-7.965053128689391</v>
+        <v>-1.608320802005011</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1577,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-156.1190476190476</v>
+        <v>-154.4952380952382</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-148.3955922865015</v>
+        <v>-152.9809273182958</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-7.723455332546166</v>
+        <v>-1.514310776942409</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1594,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-155.9952380952381</v>
+        <v>-154.5380952380953</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-148.5609996064543</v>
+        <v>-153.1273182957394</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-7.434238488783848</v>
+        <v>-1.410776942355909</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1611,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-155.8761904761905</v>
+        <v>-154.5761904761906</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-148.726406926407</v>
+        <v>-153.273709273183</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-7.14978354978345</v>
+        <v>-1.302481203007517</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1628,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-155.7285714285715</v>
+        <v>-154.657142857143</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-148.8918142463598</v>
+        <v>-153.4201002506267</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-6.83675718221167</v>
+        <v>-1.237042606516297</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1645,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-155.5714285714286</v>
+        <v>-154.6904761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-149.0572215663126</v>
+        <v>-153.5664912280702</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-6.514207005116049</v>
+        <v>-1.123984962406013</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1662,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-155.4238095238096</v>
+        <v>-154.7666666666668</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-149.2226288862653</v>
+        <v>-153.7128822055139</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-6.201180637544212</v>
+        <v>-1.053784461152901</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1679,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-155.3047619047619</v>
+        <v>-154.8285714285715</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-149.3880362062181</v>
+        <v>-153.8592731829575</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-5.916725698543814</v>
+        <v>-0.9692982456140271</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1696,16 +1692,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-155.1904761904762</v>
+        <v>-154.8714285714287</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-149.5534435261709</v>
+        <v>-154.0056641604011</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-5.637032664305309</v>
+        <v>-0.8657644110276124</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1713,16 +1709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-155.1</v>
+        <v>-154.9238095238096</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-149.7188508461237</v>
+        <v>-154.1520551378447</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-5.381149153876351</v>
+        <v>-0.7717543859649254</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1730,16 +1726,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-155</v>
+        <v>-155.004761904762</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-149.8842581660764</v>
+        <v>-154.2984461152883</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-5.115741833923579</v>
+        <v>-0.706315789473706</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1747,16 +1743,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-154.9</v>
+        <v>-155.1000000000001</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-150.0496654860292</v>
+        <v>-154.4448370927319</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-4.850334513970779</v>
+        <v>-0.6551629072681919</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1764,16 +1760,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-154.7904761904762</v>
+        <v>-155.1952380952382</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-150.215072805982</v>
+        <v>-154.5912280701755</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-4.575403384494194</v>
+        <v>-0.6040100250627063</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1781,16 +1777,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-154.7047619047619</v>
+        <v>-155.2666666666668</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-150.3804801259348</v>
+        <v>-154.7376190476191</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-4.324281778827157</v>
+        <v>-0.5290476190476454</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1798,16 +1794,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-154.6238095238095</v>
+        <v>-155.3333333333335</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-150.5458874458875</v>
+        <v>-154.8840100250627</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-4.077922077921983</v>
+        <v>-0.4493233082707206</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1815,16 +1811,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-154.5714285714286</v>
+        <v>-155.404761904762</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-150.7112947658403</v>
+        <v>-155.0304010025064</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-3.860133805588305</v>
+        <v>-0.3743609022556598</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1832,16 +1828,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-154.5190476190476</v>
+        <v>-155.4904761904763</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-150.8767020857931</v>
+        <v>-155.1767919799499</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-3.642345533254542</v>
+        <v>-0.3136842105263327</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1849,16 +1845,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-154.4714285714286</v>
+        <v>-155.6000000000001</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-151.0421094057459</v>
+        <v>-155.3231829573936</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-3.429319165682728</v>
+        <v>-0.276817042606524</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1866,16 +1862,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-154.4238095238096</v>
+        <v>-155.6904761904763</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-151.2075167256986</v>
+        <v>-155.4695739348372</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-3.216292798110914</v>
+        <v>-0.2209022556391176</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1883,16 +1879,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-154.4047619047619</v>
+        <v>-155.8142857142858</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-151.3729240456514</v>
+        <v>-155.6159649122808</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-3.03183785911051</v>
+        <v>-0.1983208020050142</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1900,16 +1896,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-154.3904761904762</v>
+        <v>-155.9190476190477</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-151.5383313656042</v>
+        <v>-155.7623558897244</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-2.852144824871999</v>
+        <v>-0.1566917293233416</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1917,16 +1913,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-154.3904761904762</v>
+        <v>-156.0380952380953</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-151.703738685557</v>
+        <v>-155.908746867168</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-2.686737504919222</v>
+        <v>-0.129348370927346</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1934,16 +1930,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-154.4142857142857</v>
+        <v>-156.152380952381</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-151.8691460055097</v>
+        <v>-156.0551378446116</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-2.545139708775991</v>
+        <v>-0.09724310776942957</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1951,16 +1947,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-154.4095238095238</v>
+        <v>-156.2952380952382</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-152.0345533254625</v>
+        <v>-156.2015288220552</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-2.374970484061322</v>
+        <v>-0.09370927318300915</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1968,16 +1964,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-154.4428571428572</v>
+        <v>-156.404761904762</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-152.1999606454153</v>
+        <v>-156.3479197994988</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-2.242896497441905</v>
+        <v>-0.05684210526322886</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1985,16 +1981,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-154.4952380952381</v>
+        <v>-156.5476190476192</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-152.3653679653681</v>
+        <v>-156.4943107769424</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-2.129870129870056</v>
+        <v>-0.05330827067672317</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2002,16 +1998,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-154.5380952380953</v>
+        <v>-156.6523809523811</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-152.5307752853208</v>
+        <v>-156.640701754386</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-2.007319952774424</v>
+        <v>-0.01167919799502215</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2019,16 +2015,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-154.5761904761905</v>
+        <v>-156.7857142857144</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-152.6961826052736</v>
+        <v>-156.7870927318296</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-1.880007870916899</v>
+        <v>0.00137844611523974</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2036,16 +2032,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-154.6571428571428</v>
+        <v>-156.9095238095239</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-152.8615899252264</v>
+        <v>-156.9334837092732</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-1.795552931916461</v>
+        <v>0.02395989974934309</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2053,16 +2049,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-154.6904761904762</v>
+        <v>-157.0809523809525</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-153.0269972451792</v>
+        <v>-157.0798746867169</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-1.663478945297044</v>
+        <v>-0.001077694235618765</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2070,16 +2066,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-154.7666666666667</v>
+        <v>-157.2190476190477</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-153.1924045651319</v>
+        <v>-157.2262656641605</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-1.574262101534742</v>
+        <v>0.007218045112750815</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2087,16 +2083,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-154.8285714285714</v>
+        <v>-157.3809523809525</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-153.3578118850847</v>
+        <v>-157.3726566416041</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-1.470759543486736</v>
+        <v>-0.008295739348398001</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2104,16 +2100,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-154.8714285714286</v>
+        <v>-157.5190476190477</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-153.5232192050375</v>
+        <v>-157.5190476190477</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-1.348209366391103</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2121,16 +2117,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-154.9238095238095</v>
+        <v>-157.6714285714287</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-153.6886265249902</v>
+        <v>-157.6714285714287</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-1.235182998819283</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2138,16 +2134,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-155.0047619047619</v>
+        <v>-157.8238095238096</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-153.854033844943</v>
+        <v>-157.8238095238096</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-1.150728059818903</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2155,16 +2151,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-155.1</v>
+        <v>-158.0000000000002</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-154.0194411648958</v>
+        <v>-158.0000000000002</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-1.080558835104227</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2172,16 +2168,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-155.1952380952381</v>
+        <v>-158.1928571428573</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-154.1848484848486</v>
+        <v>-158.1928571428573</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-1.010389610389552</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2189,428 +2185,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-155.2666666666667</v>
+        <v>-158.4023809523811</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-154.3502558048013</v>
+        <v>-158.4023809523811</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.9164108618653302</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-155.3333333333334</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-154.5156631247541</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.8176702085792726</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-155.4047619047619</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-154.6810704447069</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.7236914600550506</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-155.4904761904762</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-154.8464777646597</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>-0.6439984258165623</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-155.6</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-155.0118850846124</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>-0.5881149153875924</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-155.6904761904762</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-155.1772924045652</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>-0.5131837859109964</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-155.8142857142857</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-155.342699724518</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>-0.4715859897677603</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-155.9190476190476</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-155.5081070444708</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>-0.4109405745768413</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-156.0380952380953</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-155.6735143644235</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.3645808736717129</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-156.152380952381</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-155.8389216843763</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>-0.3134592680046353</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-156.2952380952381</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-156.0043290043291</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>-0.2909090909090253</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-156.4047619047619</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-156.1697363242819</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>-0.2350255804800554</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-156.5476190476191</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-156.3351436442346</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>-0.2124754033844738</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-156.652380952381</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-156.5005509641874</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>-0.1518299881935832</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-156.7857142857143</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-156.6659582841402</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>-0.1197560015741317</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-156.9095238095238</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-156.831365604093</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>-0.07815820543086716</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-157.0809523809524</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-156.9967729240457</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>-0.08417945690666784</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-157.2190476190476</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-157.1621802439985</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>-0.05686737504913708</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-157.3809523809524</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-157.3275875639513</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>-0.05336481700112472</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-157.5190476190476</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-157.492994883904</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>-0.02605273514359396</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-157.6714285714286</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-157.6584022038568</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>-0.01302636757176856</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-157.8238095238095</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-157.8238095238096</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-158.0000000000001</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-158.0000000000001</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-158.1928571428573</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-158.1928571428573</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-158.4023809523812</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-158.4023809523812</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2623,7 +2211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,26 +2237,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.224</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-1.631090121999165</v>
+        <v>-7.930927318295744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.476</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-9.174025974025881</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.08417945690666784</v>
+        <v>-0.008295739348398001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,75 +477,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-143.6119047619049</v>
+        <v>-137.809523809524</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-143.6119047619049</v>
+        <v>-137.809523809524</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-7.930927318295744</v>
+        <v>-1.631090121999136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-143.9642857142859</v>
+        <v>-139.2000000000001</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-143.7582957393485</v>
+        <v>-137.9749311294768</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2059899749373812</v>
+        <v>-1.225068870523359</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.224</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.008295739348398001</v>
+        <v>-9.174025974025938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-144.3285714285715</v>
+        <v>-139.7714285714287</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-143.9046867167921</v>
+        <v>-138.1403384494295</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4238847117794364</v>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+        <v>-1.631090121999136</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-0.08417945690669626</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-144.704761904762</v>
+        <v>-139.8238095238096</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-144.0510776942357</v>
+        <v>-138.3057457693823</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6536842105262792</v>
+        <v>-1.518063754427288</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -553,16 +557,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-145.0904761904763</v>
+        <v>-139.7000000000001</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-144.1974686716793</v>
+        <v>-138.4711530893351</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.8930075187969919</v>
+        <v>-1.228846910665027</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +574,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-145.5000000000001</v>
+        <v>-139.7380952380954</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-144.3438596491229</v>
+        <v>-138.6365604092879</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.156140350877166</v>
+        <v>-1.101534828807502</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +591,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-145.9000000000001</v>
+        <v>-139.7952380952382</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-144.4902506265665</v>
+        <v>-138.8019677292406</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.409749373433556</v>
+        <v>-0.9932703659975459</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +608,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-146.3000000000001</v>
+        <v>-139.8904761904763</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-144.6366416040102</v>
+        <v>-138.9673750491934</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.663358395989974</v>
+        <v>-0.9231011412828991</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +625,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-146.7000000000001</v>
+        <v>-140.0000000000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-144.7830325814537</v>
+        <v>-139.1327823691462</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.916967418546335</v>
+        <v>-0.8672176308539008</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +642,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-147.1000000000001</v>
+        <v>-140.0904761904763</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-144.9294235588974</v>
+        <v>-139.298189689099</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-2.170576441102725</v>
+        <v>-0.7922865013773048</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +659,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-147.5000000000001</v>
+        <v>-140.204761904762</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-145.075814536341</v>
+        <v>-139.4635970090517</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-2.424185463659143</v>
+        <v>-0.7411648957102557</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +676,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-147.9000000000001</v>
+        <v>-140.3142857142858</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-145.2222055137846</v>
+        <v>-139.6290043290045</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-2.677794486215532</v>
+        <v>-0.6852813852812858</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +693,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-148.2904761904763</v>
+        <v>-140.4761904761906</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-145.3685964912282</v>
+        <v>-139.7944116489573</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-2.921879699248109</v>
+        <v>-0.6817788272333019</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +710,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-148.6952380952382</v>
+        <v>-140.6428571428572</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-145.5149874686718</v>
+        <v>-139.95981896891</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-3.180250626566391</v>
+        <v>-0.6830381739471818</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +727,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-149.1380952380953</v>
+        <v>-140.8428571428572</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-145.6613784461154</v>
+        <v>-140.1252262888628</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-3.476716791979925</v>
+        <v>-0.7176308539944216</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +744,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-149.5904761904763</v>
+        <v>-141.0428571428573</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-145.807769423559</v>
+        <v>-140.2906336088156</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-3.7827067669173</v>
+        <v>-0.7522235340416614</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +761,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-150.0571428571429</v>
+        <v>-141.2857142857144</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-145.9541604010026</v>
+        <v>-140.4560409287684</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-4.102982456140325</v>
+        <v>-0.8296733569460173</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +778,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-150.5333333333334</v>
+        <v>-141.5095238095239</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-146.1005513784462</v>
+        <v>-140.6214482487212</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-4.432781954887218</v>
+        <v>-0.8880755608027471</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +795,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-151.004761904762</v>
+        <v>-141.7714285714287</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-146.2469423558898</v>
+        <v>-140.7868555686739</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-4.757819548872163</v>
+        <v>-0.984573002754729</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +812,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-151.4904761904763</v>
+        <v>-142.0142857142858</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-146.3933333333334</v>
+        <v>-140.9522628886267</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-5.097142857142842</v>
+        <v>-1.062022825659113</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +829,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-152.0095238095239</v>
+        <v>-142.3095238095239</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-146.539724310777</v>
+        <v>-141.1176702085795</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-5.469799498746852</v>
+        <v>-1.191853600944427</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +846,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-152.4952380952382</v>
+        <v>-142.6238095238096</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-146.6861152882207</v>
+        <v>-141.2830775285322</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-5.80912280701753</v>
+        <v>-1.340731995277366</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +863,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-152.9761904761905</v>
+        <v>-142.9571428571429</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-146.8325062656643</v>
+        <v>-141.448484848485</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-6.14368421052626</v>
+        <v>-1.508658008657932</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +880,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-153.4380952380953</v>
+        <v>-143.3000000000001</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-146.9788972431079</v>
+        <v>-141.6138921684378</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-6.459197994987449</v>
+        <v>-1.68610783156231</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +897,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-153.8761904761906</v>
+        <v>-143.6333333333334</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-147.1252882205515</v>
+        <v>-141.7792994883906</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-6.75090225563909</v>
+        <v>-1.854033844942876</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +914,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-154.304761904762</v>
+        <v>-143.9619047619049</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-147.2716791979951</v>
+        <v>-141.9447068083433</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-7.033082706766919</v>
+        <v>-2.017197953561521</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +931,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-154.7142857142858</v>
+        <v>-144.3238095238096</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-147.4180701754387</v>
+        <v>-142.1101141282961</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-7.296215538847122</v>
+        <v>-2.213695395513497</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +948,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-155.0809523809525</v>
+        <v>-144.704761904762</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-147.5644611528823</v>
+        <v>-142.2755214482489</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-7.51649122807018</v>
+        <v>-2.429240456513099</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +965,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-155.4095238095239</v>
+        <v>-145.0904761904763</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-147.7108521303259</v>
+        <v>-142.4409287682017</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-7.698671679197986</v>
+        <v>-2.649547422274622</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +982,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-155.6904761904763</v>
+        <v>-145.5000000000001</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-147.8572431077695</v>
+        <v>-142.6063360881544</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-7.833233082706755</v>
+        <v>-2.893663911845692</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +999,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-155.9095238095239</v>
+        <v>-145.9000000000001</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-148.0036340852131</v>
+        <v>-142.7717434081072</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-7.905889724310782</v>
+        <v>-3.128256591892892</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1016,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-156.0809523809525</v>
+        <v>-146.3000000000001</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-148.1500250626567</v>
+        <v>-142.93715072806</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-7.930927318295744</v>
+        <v>-3.362849271940149</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1033,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-156.2142857142858</v>
+        <v>-146.7000000000001</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-148.2964160401004</v>
+        <v>-143.1025580480128</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-7.917869674185454</v>
+        <v>-3.597441951987321</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1050,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-156.3142857142858</v>
+        <v>-147.1000000000001</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-148.442807017544</v>
+        <v>-143.2679653679655</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-7.87147869674186</v>
+        <v>-3.832034632034549</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1067,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-156.3809523809525</v>
+        <v>-147.5000000000001</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-148.5891979949876</v>
+        <v>-143.4333726879183</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-7.791754385964964</v>
+        <v>-4.066627312081806</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1084,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-156.4000000000001</v>
+        <v>-147.9000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-148.7355889724312</v>
+        <v>-143.5987800078711</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-7.664411027568946</v>
+        <v>-4.301219992129006</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1101,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-156.3857142857144</v>
+        <v>-148.2904761904763</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-148.8819799498748</v>
+        <v>-143.7641873278239</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-7.503734335839624</v>
+        <v>-4.526288862652422</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1118,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-156.3380952380954</v>
+        <v>-148.6952380952382</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-149.0283709273184</v>
+        <v>-143.9295946477766</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-7.309724310776971</v>
+        <v>-4.765643447461571</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1135,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-156.2761904761906</v>
+        <v>-149.1380952380953</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-149.174761904762</v>
+        <v>-144.0950019677294</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-7.101428571428585</v>
+        <v>-5.043093270365944</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1152,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-156.1952380952382</v>
+        <v>-149.5904761904763</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-149.3211528822056</v>
+        <v>-144.2604092876822</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-6.874085213032572</v>
+        <v>-5.33006690279413</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1169,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-156.1190476190477</v>
+        <v>-150.0571428571429</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-149.4675438596492</v>
+        <v>-144.4258166076349</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-6.65150375939848</v>
+        <v>-5.631326249507993</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1186,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-155.9952380952382</v>
+        <v>-150.5333333333334</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-149.6139348370928</v>
+        <v>-144.5912239275877</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-6.38130325814538</v>
+        <v>-5.942109405745725</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1203,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-155.8761904761906</v>
+        <v>-151.004761904762</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-149.7603258145364</v>
+        <v>-144.7566312475405</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-6.115864661654143</v>
+        <v>-6.248130657221509</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1220,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-155.7285714285715</v>
+        <v>-151.4904761904763</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-149.90671679198</v>
+        <v>-144.9220385674933</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-5.821854636591468</v>
+        <v>-6.568437622983026</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1237,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-155.5714285714287</v>
+        <v>-152.0095238095239</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-150.0531077694237</v>
+        <v>-145.0874458874461</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-5.518320802005007</v>
+        <v>-6.922077922077847</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1254,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-155.4238095238096</v>
+        <v>-152.4952380952382</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-150.1994987468672</v>
+        <v>-145.2528532073988</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-5.22431077694236</v>
+        <v>-7.242384887839393</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1271,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-155.304761904762</v>
+        <v>-152.9761904761906</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-150.3458897243109</v>
+        <v>-145.4182605273516</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-4.958872180451152</v>
+        <v>-7.557929948838961</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1288,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-155.1904761904763</v>
+        <v>-153.4380952380953</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-150.4922807017545</v>
+        <v>-145.5836678473044</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-4.698195488721808</v>
+        <v>-7.854427390790988</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1305,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-155.1000000000001</v>
+        <v>-153.8761904761906</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-150.6386716791981</v>
+        <v>-145.7490751672571</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-4.461328320802039</v>
+        <v>-8.12711530893344</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1322,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-155.0000000000001</v>
+        <v>-154.304761904762</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-150.7850626566417</v>
+        <v>-145.9144824872099</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-4.2149373433584</v>
+        <v>-8.390279417552108</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1339,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-154.9000000000001</v>
+        <v>-154.7142857142858</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-150.9314536340853</v>
+        <v>-146.0798898071627</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-3.96854636591479</v>
+        <v>-8.63439590712315</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1356,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-154.7904761904763</v>
+        <v>-155.0809523809525</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-151.0778446115289</v>
+        <v>-146.2452971271155</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-3.712631578947367</v>
+        <v>-8.835655253837018</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1373,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-154.704761904762</v>
+        <v>-155.4095238095239</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-151.2242355889725</v>
+        <v>-146.4107044470682</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-3.480526315789461</v>
+        <v>-8.998819362455663</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1390,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-154.6238095238096</v>
+        <v>-155.6904761904763</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-151.3706265664161</v>
+        <v>-146.576111767021</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-3.253182957393477</v>
+        <v>-9.114364423455271</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1407,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-154.5714285714287</v>
+        <v>-155.9095238095239</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-151.5170175438597</v>
+        <v>-146.7415190869738</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-3.054411027568932</v>
+        <v>-9.168004722550108</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1424,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-154.5190476190477</v>
+        <v>-156.0809523809525</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-151.6634085213034</v>
+        <v>-146.9069264069266</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-2.855639097744387</v>
+        <v>-9.174025974025938</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1441,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-154.4714285714286</v>
+        <v>-156.2142857142858</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-151.8097994987469</v>
+        <v>-147.0723337268793</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-2.661629072681706</v>
+        <v>-9.141951987406486</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1458,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-154.4238095238096</v>
+        <v>-156.3142857142858</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-151.9561904761906</v>
+        <v>-147.2377410468321</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-2.467619047619053</v>
+        <v>-9.076544667453732</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1475,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-154.404761904762</v>
+        <v>-156.3809523809525</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-152.1025814536342</v>
+        <v>-147.4031483667849</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-2.302180451127839</v>
+        <v>-8.977804014167646</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1492,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-154.3904761904763</v>
+        <v>-156.4000000000001</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-152.2489724310778</v>
+        <v>-147.5685556867377</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-2.141503759398518</v>
+        <v>-8.831444313262438</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,16 +1509,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-154.3904761904763</v>
+        <v>-156.3857142857144</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-152.3953634085214</v>
+        <v>-147.7339630066904</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-1.99511278195493</v>
+        <v>-8.651751279023983</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1522,16 +1526,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-154.4142857142858</v>
+        <v>-156.3380952380954</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-152.541754385965</v>
+        <v>-147.8993703266432</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-1.872531328320832</v>
+        <v>-8.438724911452169</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1539,16 +1543,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-154.4095238095239</v>
+        <v>-156.2761904761906</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-152.6881453634086</v>
+        <v>-148.064777646596</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-1.721378446115295</v>
+        <v>-8.211412829594622</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1556,16 +1560,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-154.4428571428572</v>
+        <v>-156.1952380952382</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-152.8345363408522</v>
+        <v>-148.2301849665488</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-1.608320802005011</v>
+        <v>-7.965053128689448</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1573,16 +1577,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-154.4952380952382</v>
+        <v>-156.1190476190477</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-152.9809273182958</v>
+        <v>-148.3955922865015</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-1.514310776942409</v>
+        <v>-7.723455332546166</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1590,16 +1594,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-154.5380952380953</v>
+        <v>-155.9952380952382</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-153.1273182957394</v>
+        <v>-148.5609996064543</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-1.410776942355909</v>
+        <v>-7.434238488783933</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1607,16 +1611,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-154.5761904761906</v>
+        <v>-155.8761904761906</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-153.273709273183</v>
+        <v>-148.7264069264071</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-1.302481203007517</v>
+        <v>-7.149783549783507</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1624,16 +1628,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-154.657142857143</v>
+        <v>-155.7285714285715</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-153.4201002506267</v>
+        <v>-148.8918142463598</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-1.237042606516297</v>
+        <v>-6.83675718221167</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1641,16 +1645,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-154.6904761904763</v>
+        <v>-155.5714285714287</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-153.5664912280702</v>
+        <v>-149.0572215663126</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-1.123984962406013</v>
+        <v>-6.514207005116049</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1658,16 +1662,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-154.7666666666668</v>
+        <v>-155.4238095238096</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-153.7128822055139</v>
+        <v>-149.2226288862654</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-1.053784461152901</v>
+        <v>-6.201180637544212</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1675,16 +1679,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-154.8285714285715</v>
+        <v>-155.304761904762</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-153.8592731829575</v>
+        <v>-149.3880362062182</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.9692982456140271</v>
+        <v>-5.916725698543843</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1692,16 +1696,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-154.8714285714287</v>
+        <v>-155.1904761904763</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-154.0056641604011</v>
+        <v>-149.553443526171</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.8657644110276124</v>
+        <v>-5.637032664305337</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1709,16 +1713,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-154.9238095238096</v>
+        <v>-155.1000000000001</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-154.1520551378447</v>
+        <v>-149.7188508461237</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.7717543859649254</v>
+        <v>-5.381149153876436</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1726,16 +1730,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-155.004761904762</v>
+        <v>-155.0000000000001</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-154.2984461152883</v>
+        <v>-149.8842581660765</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.706315789473706</v>
+        <v>-5.115741833923636</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1743,16 +1747,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-155.1000000000001</v>
+        <v>-154.9000000000001</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-154.4448370927319</v>
+        <v>-150.0496654860293</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.6551629072681919</v>
+        <v>-4.850334513970836</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1760,16 +1764,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-155.1952380952382</v>
+        <v>-154.7904761904763</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-154.5912280701755</v>
+        <v>-150.215072805982</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.6040100250627063</v>
+        <v>-4.575403384494251</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1777,16 +1781,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-155.2666666666668</v>
+        <v>-154.704761904762</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-154.7376190476191</v>
+        <v>-150.3804801259348</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.5290476190476454</v>
+        <v>-4.324281778827185</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1794,16 +1798,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-155.3333333333335</v>
+        <v>-154.6238095238096</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-154.8840100250627</v>
+        <v>-150.5458874458876</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.4493233082707206</v>
+        <v>-4.077922077922011</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1811,16 +1815,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-155.404761904762</v>
+        <v>-154.5714285714287</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-155.0304010025064</v>
+        <v>-150.7112947658404</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.3743609022556598</v>
+        <v>-3.860133805588305</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1828,16 +1832,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-155.4904761904763</v>
+        <v>-154.5190476190477</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-155.1767919799499</v>
+        <v>-150.8767020857931</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.3136842105263327</v>
+        <v>-3.642345533254598</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1845,16 +1849,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-155.6000000000001</v>
+        <v>-154.4714285714286</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-155.3231829573936</v>
+        <v>-151.0421094057459</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.276817042606524</v>
+        <v>-3.429319165682728</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1862,16 +1866,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-155.6904761904763</v>
+        <v>-154.4238095238096</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-155.4695739348372</v>
+        <v>-151.2075167256987</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.2209022556391176</v>
+        <v>-3.216292798110942</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1879,16 +1883,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-155.8142857142858</v>
+        <v>-154.404761904762</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-155.6159649122808</v>
+        <v>-151.3729240456514</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.1983208020050142</v>
+        <v>-3.031837859110567</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1896,16 +1900,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-155.9190476190477</v>
+        <v>-154.3904761904763</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-155.7623558897244</v>
+        <v>-151.5383313656042</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.1566917293233416</v>
+        <v>-2.852144824872084</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1913,16 +1917,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-156.0380952380953</v>
+        <v>-154.3904761904763</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-155.908746867168</v>
+        <v>-151.703738685557</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.129348370927346</v>
+        <v>-2.686737504919307</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1930,16 +1934,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-156.152380952381</v>
+        <v>-154.4142857142858</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-156.0551378446116</v>
+        <v>-151.8691460055098</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.09724310776942957</v>
+        <v>-2.545139708776048</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1947,16 +1951,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-156.2952380952382</v>
+        <v>-154.4095238095239</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-156.2015288220552</v>
+        <v>-152.0345533254626</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.09370927318300915</v>
+        <v>-2.374970484061379</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1964,16 +1968,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-156.404761904762</v>
+        <v>-154.4428571428572</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-156.3479197994988</v>
+        <v>-152.1999606454153</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.05684210526322886</v>
+        <v>-2.242896497441905</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1981,16 +1985,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-156.5476190476192</v>
+        <v>-154.4952380952382</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-156.4943107769424</v>
+        <v>-152.3653679653681</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.05330827067672317</v>
+        <v>-2.129870129870113</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1998,16 +2002,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-156.6523809523811</v>
+        <v>-154.5380952380954</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-156.640701754386</v>
+        <v>-152.5307752853209</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.01167919799502215</v>
+        <v>-2.00731995277448</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2015,16 +2019,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-156.7857142857144</v>
+        <v>-154.5761904761906</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-156.7870927318296</v>
+        <v>-152.6961826052736</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.00137844611523974</v>
+        <v>-1.880007870916927</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2032,16 +2036,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-156.9095238095239</v>
+        <v>-154.657142857143</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-156.9334837092732</v>
+        <v>-152.8615899252264</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.02395989974934309</v>
+        <v>-1.795552931916546</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2049,16 +2053,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-157.0809523809525</v>
+        <v>-154.6904761904763</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-157.0798746867169</v>
+        <v>-153.0269972451792</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.001077694235618765</v>
+        <v>-1.663478945297101</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2066,16 +2070,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-157.2190476190477</v>
+        <v>-154.7666666666668</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-157.2262656641605</v>
+        <v>-153.192404565132</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.007218045112750815</v>
+        <v>-1.574262101534799</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2083,16 +2087,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-157.3809523809525</v>
+        <v>-154.8285714285715</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-157.3726566416041</v>
+        <v>-153.3578118850847</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.008295739348398001</v>
+        <v>-1.470759543486793</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2100,16 +2104,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-157.5190476190477</v>
+        <v>-154.8714285714287</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-157.5190476190477</v>
+        <v>-153.5232192050375</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-1.34820936639116</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2117,16 +2121,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-157.6714285714287</v>
+        <v>-154.9238095238096</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-157.6714285714287</v>
+        <v>-153.6886265249903</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-1.235182998819312</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2134,16 +2138,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-157.8238095238096</v>
+        <v>-155.004761904762</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-157.8238095238096</v>
+        <v>-153.8540338449431</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-1.150728059818931</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2151,16 +2155,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-158.0000000000002</v>
+        <v>-155.1000000000001</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-158.0000000000002</v>
+        <v>-154.0194411648959</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-1.080558835104284</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2168,16 +2172,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-158.1928571428573</v>
+        <v>-155.1952380952382</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-158.1928571428573</v>
+        <v>-154.1848484848486</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-1.010389610389581</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2185,20 +2189,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-158.4023809523811</v>
+        <v>-155.2666666666668</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-158.4023809523811</v>
+        <v>-154.3502558048014</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.916410861865387</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-155.3333333333335</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-154.5156631247542</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.8176702085793011</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-155.404761904762</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-154.6810704447069</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.723691460055079</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-155.4904761904763</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-154.8464777646597</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-0.6439984258165623</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-155.6000000000001</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-155.0118850846125</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.5881149153875924</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-155.6904761904763</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-155.1772924045653</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.5131837859109964</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-155.8142857142858</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-155.342699724518</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.4715859897677603</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-155.9190476190477</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-155.5081070444708</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.4109405745768981</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-156.0380952380954</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-155.6735143644236</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.3645808736717981</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-156.1523809523811</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-155.8389216843763</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>-0.3134592680047206</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-156.2952380952382</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-156.0043290043291</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>-0.2909090909090821</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-156.404761904762</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-156.1697363242819</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.2350255804801407</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-156.5476190476192</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-156.3351436442347</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.2124754033844738</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-156.6523809523811</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-156.5005509641875</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-0.1518299881936116</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-156.7857142857144</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-156.6659582841402</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>-0.1197560015741601</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-156.9095238095239</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-156.831365604093</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>-0.07815820543089558</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-157.0809523809525</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-156.9967729240458</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>-0.08417945690669626</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-157.2190476190477</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-157.1621802439985</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>-0.0568673750491655</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-157.3809523809525</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-157.3275875639513</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>-0.05336481700118156</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-157.5190476190477</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-157.4929948839041</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.02605273514365081</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-157.6714285714287</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-157.6584022038569</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.01302636757179698</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-157.8238095238096</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-157.8238095238096</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-158.0000000000002</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-158.0000000000002</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-158.1928571428574</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-158.1928571428574</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-158.4023809523813</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-158.4023809523813</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2211,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2237,18 +2649,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-7.930927318295744</v>
+        <v>-1.631090121999136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.224</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.008295739348398001</v>
+        <v>-9.174025974025938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.08417945690669626</v>
       </c>
     </row>
   </sheetData>
